--- a/data/trans_bre/P16A98-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A98-Habitat-trans_bre.xlsx
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,58</t>
+          <t>0,0; 20,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 4,87</t>
+          <t>-9,16; 5,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,13</t>
+          <t>-0,77; 2,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 6,86</t>
+          <t>-1,64; 6,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,62</t>
+          <t>0,0; 3,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,54; 353,58</t>
+          <t>-53,37; 348,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 7,44</t>
+          <t>1,11; 7,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,51</t>
+          <t>-0,94; 1,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,71; 472,99</t>
+          <t>25,38; 474,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 667,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,17</t>
+          <t>0,77; 7,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,53</t>
+          <t>-0,14; 2,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,31; 602,39</t>
+          <t>15,4; 676,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,0</t>
+          <t>-0,94; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 6,9</t>
+          <t>0,65; 6,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,28</t>
+          <t>-0,67; 3,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,05; 720,98</t>
+          <t>5,79; 821,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-57,93; 781,96</t>
+          <t>-57,62; 624,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,57</t>
+          <t>-0,11; 0,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,14</t>
+          <t>2,0; 5,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,47</t>
+          <t>-0,26; 1,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1342,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>69,88; 297,83</t>
+          <t>80,25; 290,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 294,02</t>
+          <t>-34,18; 324,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P16A98-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A98-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,23</t>
+          <t>0,0; 18,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 5,18</t>
+          <t>-8,99; 5,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,23</t>
+          <t>-0,69; 2,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 6,65</t>
+          <t>-1,92; 6,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,1</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,37; 348,01</t>
+          <t>-47,35; 331,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,48</t>
+          <t>1,13; 7,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,61</t>
+          <t>-0,96; 1,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,38; 474,25</t>
+          <t>32,11; 486,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,43</t>
+          <t>0,87; 7,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,47</t>
+          <t>-0,13; 2,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,4; 676,97</t>
+          <t>6,31; 658,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,0</t>
+          <t>-0,89; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,74</t>
+          <t>0,88; 6,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,13</t>
+          <t>-0,82; 3,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 821,41</t>
+          <t>12,71; 760,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-57,62; 624,22</t>
+          <t>-68,53; 615,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,58</t>
+          <t>-0,11; 0,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,16</t>
+          <t>1,78; 5,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,41</t>
+          <t>-0,18; 1,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1342,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>80,25; 290,74</t>
+          <t>61,62; 287,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 324,73</t>
+          <t>-23,63; 280,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
